--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ntf5-Ntrk1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ntf5-Ntrk1.xlsx
@@ -540,10 +540,10 @@
         <v>2.108393</v>
       </c>
       <c r="I2">
-        <v>0.676637073056764</v>
+        <v>0.4800474766800295</v>
       </c>
       <c r="J2">
-        <v>0.676637073056764</v>
+        <v>0.4800474766800294</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,7 +552,7 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.088493</v>
+        <v>0.08849299999999999</v>
       </c>
       <c r="N2">
         <v>0.265479</v>
@@ -567,13 +567,13 @@
         <v>0.06219267391633333</v>
       </c>
       <c r="R2">
-        <v>0.559734065247</v>
+        <v>0.5597340652469999</v>
       </c>
       <c r="S2">
-        <v>0.6125130715446298</v>
+        <v>0.4345540115031014</v>
       </c>
       <c r="T2">
-        <v>0.6125130715446298</v>
+        <v>0.4345540115031013</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>2.108393</v>
       </c>
       <c r="I3">
-        <v>0.676637073056764</v>
+        <v>0.4800474766800295</v>
       </c>
       <c r="J3">
-        <v>0.676637073056764</v>
+        <v>0.4800474766800294</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,10 +620,10 @@
         <v>0.027793</v>
       </c>
       <c r="O3">
+        <v>0.09476867890558938</v>
+      </c>
+      <c r="P3">
         <v>0.09476867890558936</v>
-      </c>
-      <c r="P3">
-        <v>0.09476867890558935</v>
       </c>
       <c r="Q3">
         <v>0.006510951849888889</v>
@@ -632,10 +632,10 @@
         <v>0.058598566649</v>
       </c>
       <c r="S3">
-        <v>0.06412400151213428</v>
+        <v>0.04549346517692811</v>
       </c>
       <c r="T3">
-        <v>0.06412400151213427</v>
+        <v>0.0454934651769281</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.1401493333333333</v>
+        <v>0.341519</v>
       </c>
       <c r="H4">
-        <v>0.4204479999999999</v>
+        <v>1.024557</v>
       </c>
       <c r="I4">
-        <v>0.1349324836937754</v>
+        <v>0.233275296666637</v>
       </c>
       <c r="J4">
-        <v>0.1349324836937754</v>
+        <v>0.233275296666637</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,7 +676,7 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.088493</v>
+        <v>0.08849299999999999</v>
       </c>
       <c r="N4">
         <v>0.265479</v>
@@ -688,16 +688,16 @@
         <v>0.9052313210944106</v>
       </c>
       <c r="Q4">
-        <v>0.01240223495466666</v>
+        <v>0.03022204086699999</v>
       </c>
       <c r="R4">
-        <v>0.111620114592</v>
+        <v>0.271998367803</v>
       </c>
       <c r="S4">
-        <v>0.1221451104726664</v>
+        <v>0.2111681049802304</v>
       </c>
       <c r="T4">
-        <v>0.1221451104726664</v>
+        <v>0.2111681049802304</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,22 +714,22 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.1401493333333333</v>
+        <v>0.341519</v>
       </c>
       <c r="H5">
-        <v>0.4204479999999999</v>
+        <v>1.024557</v>
       </c>
       <c r="I5">
-        <v>0.1349324836937754</v>
+        <v>0.233275296666637</v>
       </c>
       <c r="J5">
-        <v>0.1349324836937754</v>
+        <v>0.233275296666637</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,22 +744,22 @@
         <v>0.027793</v>
       </c>
       <c r="O5">
+        <v>0.09476867890558938</v>
+      </c>
+      <c r="P5">
         <v>0.09476867890558936</v>
       </c>
-      <c r="P5">
-        <v>0.09476867890558935</v>
-      </c>
       <c r="Q5">
-        <v>0.001298390140444444</v>
+        <v>0.003163945855666667</v>
       </c>
       <c r="R5">
-        <v>0.011685511264</v>
+        <v>0.028475512701</v>
       </c>
       <c r="S5">
-        <v>0.01278737322110908</v>
+        <v>0.02210719168640663</v>
       </c>
       <c r="T5">
-        <v>0.01278737322110908</v>
+        <v>0.02210719168640663</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,22 +776,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.1957156666666666</v>
+        <v>0.4197003333333333</v>
       </c>
       <c r="H6">
-        <v>0.587147</v>
+        <v>1.259101</v>
       </c>
       <c r="I6">
-        <v>0.1884304432494605</v>
+        <v>0.2866772266533335</v>
       </c>
       <c r="J6">
-        <v>0.1884304432494605</v>
+        <v>0.2866772266533335</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.088493</v>
+        <v>0.08849299999999999</v>
       </c>
       <c r="N6">
         <v>0.265479</v>
@@ -812,16 +812,16 @@
         <v>0.9052313210944106</v>
       </c>
       <c r="Q6">
-        <v>0.01731946649033333</v>
+        <v>0.03714054159766667</v>
       </c>
       <c r="R6">
-        <v>0.155875198413</v>
+        <v>0.334264874379</v>
       </c>
       <c r="S6">
-        <v>0.1705731390771145</v>
+        <v>0.2595092046110788</v>
       </c>
       <c r="T6">
-        <v>0.1705731390771145</v>
+        <v>0.2595092046110788</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,22 +838,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.1957156666666666</v>
+        <v>0.4197003333333333</v>
       </c>
       <c r="H7">
-        <v>0.587147</v>
+        <v>1.259101</v>
       </c>
       <c r="I7">
-        <v>0.1884304432494605</v>
+        <v>0.2866772266533335</v>
       </c>
       <c r="J7">
-        <v>0.1884304432494605</v>
+        <v>0.2866772266533335</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,22 +868,22 @@
         <v>0.027793</v>
       </c>
       <c r="O7">
+        <v>0.09476867890558938</v>
+      </c>
+      <c r="P7">
         <v>0.09476867890558936</v>
       </c>
-      <c r="P7">
-        <v>0.09476867890558935</v>
-      </c>
       <c r="Q7">
-        <v>0.001813175174555556</v>
+        <v>0.003888243788111112</v>
       </c>
       <c r="R7">
-        <v>0.016318576571</v>
+        <v>0.034994194093</v>
       </c>
       <c r="S7">
-        <v>0.017857304172346</v>
+        <v>0.02716802204225463</v>
       </c>
       <c r="T7">
-        <v>0.017857304172346</v>
+        <v>0.02716802204225462</v>
       </c>
     </row>
   </sheetData>
